--- a/v0.1-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.1-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{456DC482-08F4-4526-BFF5-E0CD655905C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C1D115-A460-4EA3-AE33-8CFFB92A586B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{456DC482-08F4-4526-BFF5-E0CD655905C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{294C34AD-46EC-468C-9179-D41502B003D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="226">
   <si>
     <t>Object</t>
   </si>
@@ -686,6 +686,42 @@
   </si>
   <si>
     <t>Nodig?</t>
+  </si>
+  <si>
+    <t>SoortUitbetaling</t>
+  </si>
+  <si>
+    <t>Manier waarop dienst uitbetaald dient te worden (Gesplitst, bewindvoerder etc.)</t>
+  </si>
+  <si>
+    <t>AanDerdeReden</t>
+  </si>
+  <si>
+    <t>AanDerdeIBAN</t>
+  </si>
+  <si>
+    <t>Verplicht indien SoortUitbetaling=gemachtigde of bewindvoerder</t>
+  </si>
+  <si>
+    <t>RekeninghouderDerde</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>Verplicht indien SoortUitbetaling=klant of gesplitst</t>
+  </si>
+  <si>
+    <t>Rekeninghouder</t>
+  </si>
+  <si>
+    <t>IBANpartner</t>
+  </si>
+  <si>
+    <t>Verplicht indien SoortUitbetaling=partner of gesplitst</t>
+  </si>
+  <si>
+    <t>RekeninghouderPartner</t>
   </si>
 </sst>
 </file>
@@ -767,10 +803,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1086,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B90832-9B45-4A7C-8E70-F9E2CC066ECE}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,13 +1144,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1820,7 +1856,7 @@
       <c r="D73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1831,7 +1867,7 @@
       <c r="D74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1842,7 +1878,7 @@
       <c r="D75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2740,7 +2776,7 @@
       <c r="D164" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2793,6 +2829,94 @@
       </c>
       <c r="D170" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>113</v>
+      </c>
+      <c r="B171" t="s">
+        <v>214</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>216</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>217</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>220</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E175" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>222</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>223</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>225</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E178" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
